--- a/data/balance_sheet/2digits/total/09_BS_TOTAL.xlsx
+++ b/data/balance_sheet/2digits/total/09_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>09-Mining support service activities</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>09-Mining support service activities</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,21 +915,26 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
-        <v>236462.96851</v>
+        <v>236462.9685099999</v>
       </c>
       <c r="D5" s="32" t="n">
-        <v>433392.83184</v>
+        <v>433392.8318400001</v>
       </c>
       <c r="E5" s="32" t="n">
-        <v>890545.9411000001</v>
+        <v>890545.9411000002</v>
       </c>
       <c r="F5" s="33" t="n">
         <v>942818.7120899999</v>
@@ -1493,29 +943,34 @@
         <v>1074834.08998</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>1352042.90796</v>
+        <v>1352009.96866</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>1308187.55398</v>
+        <v>1329874.44035</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>1731374.9838</v>
+        <v>1731445.76928</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>1688785.3532</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>3779950.96977</v>
+        <v>3879887.69963</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>5349062.47758</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>5854955.74816</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>9174055.059</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>48487.7977</v>
@@ -1533,29 +988,34 @@
         <v>414293.85426</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>498417.87149</v>
+        <v>498330.77116</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>452733.8143200001</v>
+        <v>453237.9779000001</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>705337.7942</v>
+        <v>705397.5923200001</v>
       </c>
       <c r="K6" s="23" t="n">
-        <v>533886.02124</v>
+        <v>533886.0212399999</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>690129.11986</v>
+        <v>702641.1758800001</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>1193740.87983</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>1259855.26424</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>2314847.497</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>3025.44215</v>
@@ -1567,35 +1027,40 @@
         <v>4651.45038</v>
       </c>
       <c r="F7" s="21" t="n">
-        <v>5512.364739999999</v>
+        <v>5512.36474</v>
       </c>
       <c r="G7" s="22" t="n">
         <v>6648.45741</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>6781.96299</v>
+        <v>6780.96227</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>6658.3769</v>
+        <v>6705.349530000001</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>6805.39724</v>
+        <v>6848.64922</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>10818.37639</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>14232.39578</v>
+        <v>14352.33452</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>22280.73205</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>22567.71884</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>21154.194</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>1644.58012</v>
@@ -1628,14 +1093,19 @@
         <v>6514.69863</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>12312.6075</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>12591.96068</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>24166.516</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>44049.69325</v>
@@ -1653,29 +1123,34 @@
         <v>401648.49837</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>488546.18393</v>
+        <v>488460.08432</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>443859.9526</v>
+        <v>444317.14355</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>695707.09727</v>
+        <v>695723.6434100001</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>523455.99141</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>670043.0237</v>
+        <v>682435.14098</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>1163663.00327</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>1229211.04771</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>2279637.603</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>235.40189</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>4652.58863</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>10790.128</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>3.48407</v>
@@ -1750,12 +1230,17 @@
       <c r="M11" s="22" t="n">
         <v>137.12564</v>
       </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+      <c r="N11" s="22" t="n">
+        <v>679.312</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>1955.37907</v>
@@ -1770,7 +1255,7 @@
         <v>14438.02971</v>
       </c>
       <c r="G12" s="23" t="n">
-        <v>719.20971</v>
+        <v>719.2097100000001</v>
       </c>
       <c r="H12" s="33" t="n">
         <v>1417.51063</v>
@@ -1782,7 +1267,7 @@
         <v>738.1173199999999</v>
       </c>
       <c r="K12" s="23" t="n">
-        <v>51359.64023999999</v>
+        <v>51359.64024</v>
       </c>
       <c r="L12" s="23" t="n">
         <v>57423.2254</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>173086.71442</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>389955.104</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>645.4574399999999</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>2738.11546</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>3215.978</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>28.80438</v>
@@ -1862,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="22" t="n">
-        <v>300.26288</v>
+        <v>300.2628799999999</v>
       </c>
       <c r="L14" s="22" t="n">
         <v>200.29991</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>348.56458</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>200.949</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>0</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>64</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>1281.11725</v>
@@ -1939,7 +1444,7 @@
         <v>24.01977</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>0.03437999999999999</v>
+        <v>0.03438</v>
       </c>
       <c r="K16" s="22" t="n">
         <v>50000.03438</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>170000.03438</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>386474.177</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,18 +1500,23 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>32033.80074999999</v>
+        <v>32033.80075</v>
       </c>
       <c r="D18" s="23" t="n">
-        <v>84158.70251</v>
+        <v>84158.70250999999</v>
       </c>
       <c r="E18" s="23" t="n">
         <v>258964.78816</v>
@@ -2025,23 +1540,28 @@
         <v>301406.26987</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>748173.47408</v>
+        <v>765693.3666700001</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>923536.4574900001</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>987771.92602</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>2438793.999</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>29561.13529</v>
       </c>
       <c r="D19" s="22" t="n">
-        <v>61973.26917</v>
+        <v>61973.26916999999</v>
       </c>
       <c r="E19" s="22" t="n">
         <v>222125.25034</v>
@@ -2065,17 +1585,22 @@
         <v>230733.861</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>693992.41527</v>
+        <v>711492.15786</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>854743.37768</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>918130.4598899999</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>2274207.669</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>284.88</v>
@@ -2105,17 +1630,22 @@
         <v>16159.26627</v>
       </c>
       <c r="L20" s="22" t="n">
-        <v>20636.30569</v>
+        <v>20654.70569</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>18723.44521</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>18785.94521</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>66567.25</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>153.02544</v>
@@ -2204,7 +1744,7 @@
         <v>419.19406</v>
       </c>
       <c r="E23" s="22" t="n">
-        <v>701.7136299999999</v>
+        <v>701.71363</v>
       </c>
       <c r="F23" s="21" t="n">
         <v>1514.13313</v>
@@ -2216,7 +1756,7 @@
         <v>1119.33118</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>4734.955329999999</v>
+        <v>4734.95533</v>
       </c>
       <c r="J23" s="21" t="n">
         <v>12953.98267</v>
@@ -2225,17 +1765,22 @@
         <v>17989.61346</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>26234.91782</v>
+        <v>26236.66782</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>20935.64151</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>21605.23232</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>37921.885</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>1146.41484</v>
@@ -2256,32 +1801,37 @@
         <v>80029.44956000001</v>
       </c>
       <c r="I24" s="22" t="n">
-        <v>87545.99986000001</v>
+        <v>87545.99986</v>
       </c>
       <c r="J24" s="21" t="n">
         <v>32528.4328</v>
       </c>
       <c r="K24" s="22" t="n">
-        <v>34948.67364999999</v>
+        <v>34948.67365</v>
       </c>
       <c r="L24" s="22" t="n">
         <v>4673.56172</v>
       </c>
       <c r="M24" s="22" t="n">
-        <v>26697.31949</v>
-      </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+        <v>26803.074</v>
+      </c>
+      <c r="N24" s="22" t="n">
+        <v>58482.146</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>1783.3613</v>
       </c>
       <c r="D25" s="22" t="n">
-        <v>684.92274</v>
+        <v>684.9227399999999</v>
       </c>
       <c r="E25" s="22" t="n">
         <v>824.1083599999999</v>
@@ -2293,53 +1843,58 @@
         <v>1029.00608</v>
       </c>
       <c r="H25" s="21" t="n">
-        <v>1141.09805</v>
+        <v>1182.41941</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>1383.55251</v>
+        <v>2563.7686</v>
       </c>
       <c r="J25" s="21" t="n">
         <v>3399.9842</v>
       </c>
       <c r="K25" s="22" t="n">
-        <v>4968.780559999999</v>
+        <v>4968.78056</v>
       </c>
       <c r="L25" s="22" t="n">
         <v>25470.15277</v>
       </c>
       <c r="M25" s="22" t="n">
-        <v>27187.32441</v>
-      </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+        <v>27197.86541</v>
+      </c>
+      <c r="N25" s="22" t="n">
+        <v>38621.597</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>895.01612</v>
       </c>
       <c r="D26" s="22" t="n">
-        <v>681.76838</v>
+        <v>681.7683799999999</v>
       </c>
       <c r="E26" s="22" t="n">
         <v>820.954</v>
       </c>
       <c r="F26" s="21" t="n">
-        <v>881.0383099999999</v>
+        <v>881.03831</v>
       </c>
       <c r="G26" s="22" t="n">
         <v>913.0174199999999</v>
       </c>
       <c r="H26" s="21" t="n">
-        <v>946.6265500000001</v>
+        <v>987.9479099999999</v>
       </c>
       <c r="I26" s="22" t="n">
-        <v>1312.689</v>
+        <v>2492.90509</v>
       </c>
       <c r="J26" s="21" t="n">
-        <v>3169.675639999999</v>
+        <v>3169.67564</v>
       </c>
       <c r="K26" s="22" t="n">
         <v>3393.92507</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>24750.65081</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>37006.548</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>97618.92517</v>
@@ -2364,7 +1924,7 @@
         <v>25897.28087</v>
       </c>
       <c r="E27" s="23" t="n">
-        <v>95615.61518999998</v>
+        <v>95615.61519</v>
       </c>
       <c r="F27" s="33" t="n">
         <v>79233.97766999999</v>
@@ -2373,10 +1933,10 @@
         <v>119952.15915</v>
       </c>
       <c r="H27" s="33" t="n">
-        <v>123218.6036</v>
+        <v>123188.38762</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>206726.65203</v>
+        <v>224096.18098</v>
       </c>
       <c r="J27" s="33" t="n">
         <v>128441.60464</v>
@@ -2385,23 +1945,28 @@
         <v>124219.94305</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>368108.19266</v>
+        <v>368674.28784</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>393735.88883</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>318697.18625</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>440768.957</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>3050.05459</v>
       </c>
       <c r="D28" s="22" t="n">
-        <v>5582.437660000001</v>
+        <v>5582.43766</v>
       </c>
       <c r="E28" s="22" t="n">
         <v>4478.723970000001</v>
@@ -2422,26 +1987,31 @@
         <v>22430.58718</v>
       </c>
       <c r="K28" s="22" t="n">
-        <v>43705.01079999999</v>
+        <v>43705.0108</v>
       </c>
       <c r="L28" s="22" t="n">
         <v>67529.91834999999</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>35206.78633</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>37335.23624000001</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>132414.762</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>86954.175</v>
       </c>
       <c r="D29" s="22" t="n">
-        <v>6.974139999999999</v>
+        <v>6.97414</v>
       </c>
       <c r="E29" s="22" t="n">
         <v>961.3441</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>16115.13604</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>3233.439</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>158.95335</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>6277.05114</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>4047.061</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>14.13952</v>
@@ -2548,14 +2128,19 @@
         <v>452.6013</v>
       </c>
       <c r="M31" s="22" t="n">
-        <v>457.65731</v>
-      </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+        <v>457.79695</v>
+      </c>
+      <c r="N31" s="22" t="n">
+        <v>467.951</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>7437.085609999999</v>
@@ -2567,35 +2152,40 @@
         <v>90014.8383</v>
       </c>
       <c r="F32" s="21" t="n">
-        <v>54339.86249000001</v>
+        <v>54339.86248999999</v>
       </c>
       <c r="G32" s="22" t="n">
         <v>114131.01631</v>
       </c>
       <c r="H32" s="21" t="n">
-        <v>117844.33142</v>
+        <v>117814.11544</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>189940.05722</v>
+        <v>207309.58617</v>
       </c>
       <c r="J32" s="21" t="n">
         <v>102842.73565</v>
       </c>
       <c r="K32" s="22" t="n">
-        <v>78555.68852000001</v>
+        <v>78555.68852</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>114584.05982</v>
+        <v>115150.155</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>335679.25801</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>258511.96588</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>300605.744</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>1020.61597</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>77.35104</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>77.351</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>1016.09887</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>77.35104</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>77.351</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>47895.47252</v>
@@ -2730,7 +2335,7 @@
         <v>101731.49033</v>
       </c>
       <c r="G36" s="23" t="n">
-        <v>185133.21364</v>
+        <v>185133.2136399999</v>
       </c>
       <c r="H36" s="33" t="n">
         <v>259759.74777</v>
@@ -2739,23 +2344,28 @@
         <v>159915.40332</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>154745.21807</v>
+        <v>154748.68081</v>
       </c>
       <c r="K36" s="23" t="n">
         <v>206076.32714</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>506582.74612</v>
+        <v>514595.86517</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>783060.42375</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>1118453.94635</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>1225957.543</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>11502.94562</v>
@@ -2770,32 +2380,37 @@
         <v>32579.83684</v>
       </c>
       <c r="G37" s="22" t="n">
-        <v>50662.74301</v>
+        <v>50662.74301000001</v>
       </c>
       <c r="H37" s="21" t="n">
         <v>61235.96481</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>79416.62851999998</v>
+        <v>79416.62852</v>
       </c>
       <c r="J37" s="21" t="n">
-        <v>65999.31369</v>
+        <v>65999.31369000001</v>
       </c>
       <c r="K37" s="22" t="n">
-        <v>86745.77377</v>
+        <v>86745.77377000001</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>253646.278</v>
+        <v>253693.64025</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>463186.33679</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>521817.23853</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>786250.4300000001</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>263.5585400000001</v>
@@ -2819,7 +2434,7 @@
         <v>25671.10793</v>
       </c>
       <c r="J38" s="21" t="n">
-        <v>4553.4778</v>
+        <v>4553.477800000001</v>
       </c>
       <c r="K38" s="22" t="n">
         <v>4832.16687</v>
@@ -2830,12 +2445,17 @@
       <c r="M38" s="22" t="n">
         <v>3077.66794</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>3229.468</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>810.4823799999999</v>
@@ -2870,18 +2490,23 @@
       <c r="M39" s="22" t="n">
         <v>5166.50657</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>2002.266</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>5156.850899999999</v>
       </c>
       <c r="D40" s="22" t="n">
-        <v>7530.88343</v>
+        <v>7530.883429999999</v>
       </c>
       <c r="E40" s="22" t="n">
         <v>22826.34776</v>
@@ -2890,10 +2515,10 @@
         <v>31578.50795</v>
       </c>
       <c r="G40" s="22" t="n">
-        <v>44113.01019</v>
+        <v>44113.01019000001</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>55315.42884</v>
+        <v>55315.42883999999</v>
       </c>
       <c r="I40" s="22" t="n">
         <v>31569.16904</v>
@@ -2902,20 +2527,25 @@
         <v>36855.91814</v>
       </c>
       <c r="K40" s="22" t="n">
-        <v>52916.59285</v>
+        <v>52916.59285000001</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>86666.52687</v>
+        <v>94484.13071</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>133074.4388</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>143222.41549</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>204718.094</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>15390.87701</v>
@@ -2930,7 +2560,7 @@
         <v>101.64715</v>
       </c>
       <c r="G41" s="22" t="n">
-        <v>18558.38819999999</v>
+        <v>18558.3882</v>
       </c>
       <c r="H41" s="21" t="n">
         <v>57070.71335</v>
@@ -2942,20 +2572,25 @@
         <v>4219.32692</v>
       </c>
       <c r="K41" s="22" t="n">
-        <v>4987.18095</v>
+        <v>4987.180949999999</v>
       </c>
       <c r="L41" s="22" t="n">
-        <v>42888.37335</v>
+        <v>43027.95131</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>39024.74353</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>39703.59611999999</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>52742.593</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>14770.75807</v>
@@ -3004,13 +2644,13 @@
         <v>11716.64554</v>
       </c>
       <c r="E43" s="22" t="n">
-        <v>66920.57858000002</v>
+        <v>66920.57858</v>
       </c>
       <c r="F43" s="21" t="n">
         <v>30095.7848</v>
       </c>
       <c r="G43" s="22" t="n">
-        <v>55147.24757000001</v>
+        <v>55147.24757</v>
       </c>
       <c r="H43" s="21" t="n">
         <v>57947.87757</v>
@@ -3019,23 +2659,28 @@
         <v>16212.64436</v>
       </c>
       <c r="J43" s="21" t="n">
-        <v>25804.88573</v>
+        <v>25808.34847</v>
       </c>
       <c r="K43" s="22" t="n">
         <v>37630.96983</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>118840.11815</v>
+        <v>118848.69315</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>139530.73012</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>405466.5217</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>177014.692</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>0</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>1025826.78246</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>1404973.864</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>0</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>1022361.55988</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>1352440.433</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,52 +2850,62 @@
       <c r="M47" s="22" t="n">
         <v>3465.22258</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>52533.431</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>2962.02039</v>
       </c>
       <c r="D48" s="46" t="n">
-        <v>3582.02271</v>
+        <v>3582.022710000001</v>
       </c>
       <c r="E48" s="46" t="n">
         <v>32591.12882</v>
       </c>
       <c r="F48" s="45" t="n">
-        <v>9536.423080000002</v>
+        <v>9536.423079999999</v>
       </c>
       <c r="G48" s="46" t="n">
         <v>32776.89046</v>
       </c>
       <c r="H48" s="45" t="n">
-        <v>9094.91387</v>
+        <v>9092.201590000002</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>8151.804869999999</v>
+        <v>8151.854259999999</v>
       </c>
       <c r="J48" s="45" t="n">
-        <v>23229.35903</v>
+        <v>23233.35903</v>
       </c>
       <c r="K48" s="46" t="n">
         <v>16367.81747</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>193779.79147</v>
+        <v>193784.7799</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>283733.89528</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>315356.64604</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>267138.733</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>1448.69027</v>
@@ -3244,38 +2914,43 @@
         <v>1461.69468</v>
       </c>
       <c r="E49" s="22" t="n">
-        <v>5989.7301</v>
+        <v>5989.730100000001</v>
       </c>
       <c r="F49" s="21" t="n">
         <v>2680.92795</v>
       </c>
       <c r="G49" s="22" t="n">
-        <v>4994.53094</v>
+        <v>4994.530940000001</v>
       </c>
       <c r="H49" s="21" t="n">
-        <v>5054.84468</v>
+        <v>5051.990100000001</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>2196.18743</v>
+        <v>2196.187429999999</v>
       </c>
       <c r="J49" s="21" t="n">
-        <v>9713.562910000001</v>
+        <v>9717.562909999999</v>
       </c>
       <c r="K49" s="22" t="n">
         <v>3865.2282</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>33345.14567000001</v>
+        <v>33349.9694</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>19502.08071</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>19506.67097</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>18545.414</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>1513.33012</v>
@@ -3287,16 +2962,16 @@
         <v>26601.39872</v>
       </c>
       <c r="F50" s="21" t="n">
-        <v>6855.495129999999</v>
+        <v>6855.495130000001</v>
       </c>
       <c r="G50" s="22" t="n">
-        <v>27782.35951999999</v>
+        <v>27782.35952</v>
       </c>
       <c r="H50" s="21" t="n">
-        <v>4040.069190000001</v>
+        <v>4040.21149</v>
       </c>
       <c r="I50" s="22" t="n">
-        <v>5955.617439999999</v>
+        <v>5955.66683</v>
       </c>
       <c r="J50" s="21" t="n">
         <v>13515.79612</v>
@@ -3305,57 +2980,67 @@
         <v>12502.58927</v>
       </c>
       <c r="L50" s="22" t="n">
-        <v>160434.6458</v>
+        <v>160434.8105</v>
       </c>
       <c r="M50" s="22" t="n">
-        <v>264231.81457</v>
-      </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+        <v>295849.97507</v>
+      </c>
+      <c r="N50" s="22" t="n">
+        <v>248593.319</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>5509.57291</v>
       </c>
       <c r="D51" s="46" t="n">
-        <v>70096.93118000001</v>
+        <v>70096.93117999999</v>
       </c>
       <c r="E51" s="46" t="n">
-        <v>69731.16875000001</v>
+        <v>69731.16875</v>
       </c>
       <c r="F51" s="45" t="n">
-        <v>94328.46479000003</v>
+        <v>94328.46479000001</v>
       </c>
       <c r="G51" s="46" t="n">
         <v>159986.1318</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>212045.42269</v>
+        <v>212132.51198</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>271987.74091</v>
+        <v>275800.88536</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>468943.73518</v>
+        <v>468947.2597999999</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>426789.91874</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>466318.8892799999</v>
+        <v>527639.4678699999</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>572341.4355199999</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>655907.28238</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>691619.362</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>3979.70787</v>
@@ -3373,29 +3058,34 @@
         <v>96130.88135000001</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>111238.31329</v>
+        <v>111247.44925</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>118542.94652</v>
+        <v>119280.34311</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>113074.15452</v>
+        <v>113077.67914</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>117827.30722</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>136025.92842</v>
+        <v>137959.95716</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>178219.64157</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>180535.35357</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>218193.097</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>0.0551</v>
@@ -3428,14 +3118,19 @@
         <v>2099.82552</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>58.06904</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>220.53469</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>276.839</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>114.30977</v>
@@ -3470,15 +3165,20 @@
       <c r="M54" s="22" t="n">
         <v>1038.7793</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>730.0700000000001</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
-        <v>593.88003</v>
+        <v>593.8800299999999</v>
       </c>
       <c r="D55" s="22" t="n">
         <v>12141.73591</v>
@@ -3487,16 +3187,16 @@
         <v>23478.30301</v>
       </c>
       <c r="F55" s="21" t="n">
-        <v>2799.553899999999</v>
+        <v>2799.5539</v>
       </c>
       <c r="G55" s="22" t="n">
         <v>11031.7562</v>
       </c>
       <c r="H55" s="21" t="n">
-        <v>6353.96478</v>
+        <v>6354.73786</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>12003.07276</v>
+        <v>12005.93225</v>
       </c>
       <c r="J55" s="21" t="n">
         <v>3616.63938</v>
@@ -3505,17 +3205,22 @@
         <v>6227.044370000001</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>20559.01456</v>
+        <v>20563.7614</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>13171.27089</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>27121.65157</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>82591.872</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>710.0586500000001</v>
@@ -3524,38 +3229,43 @@
         <v>37625.65767</v>
       </c>
       <c r="E56" s="22" t="n">
-        <v>5325.633339999999</v>
+        <v>5325.633340000001</v>
       </c>
       <c r="F56" s="21" t="n">
         <v>38549.85962</v>
       </c>
       <c r="G56" s="22" t="n">
-        <v>52607.75522</v>
+        <v>52607.75521999999</v>
       </c>
       <c r="H56" s="21" t="n">
-        <v>54035.30873999999</v>
+        <v>54112.48899000001</v>
       </c>
       <c r="I56" s="22" t="n">
-        <v>42952.22952</v>
+        <v>46025.11789</v>
       </c>
       <c r="J56" s="21" t="n">
-        <v>59908.27063000001</v>
+        <v>59908.27063</v>
       </c>
       <c r="K56" s="22" t="n">
         <v>72298.78753</v>
       </c>
       <c r="L56" s="22" t="n">
-        <v>41486.38792</v>
+        <v>100856.01741</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>96705.60487</v>
-      </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+        <v>163728.03141</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>73546.87699999999</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>111.56057</v>
@@ -3570,7 +3280,7 @@
         <v>134.27432</v>
       </c>
       <c r="G57" s="22" t="n">
-        <v>90.9277</v>
+        <v>90.92770000000002</v>
       </c>
       <c r="H57" s="21" t="n">
         <v>46.50798</v>
@@ -3588,14 +3298,19 @@
         <v>360.49259</v>
       </c>
       <c r="M57" s="22" t="n">
-        <v>329.30414</v>
-      </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+        <v>344.30414</v>
+      </c>
+      <c r="N57" s="22" t="n">
+        <v>1318.362</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0.00092</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>0</v>
@@ -3650,13 +3370,13 @@
         <v>6.74035</v>
       </c>
       <c r="G59" s="22" t="n">
-        <v>9.036119999999999</v>
+        <v>9.03612</v>
       </c>
       <c r="H59" s="21" t="n">
         <v>40208.71176</v>
       </c>
       <c r="I59" s="22" t="n">
-        <v>98407.68646</v>
+        <v>98407.68646000001</v>
       </c>
       <c r="J59" s="21" t="n">
         <v>292126.35913</v>
@@ -3665,16 +3385,21 @@
         <v>230032.89897</v>
       </c>
       <c r="L59" s="22" t="n">
-        <v>264976.78496</v>
+        <v>264988.95848</v>
       </c>
       <c r="M59" s="22" t="n">
-        <v>282818.76571</v>
-      </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+        <v>282918.6277</v>
+      </c>
+      <c r="N59" s="22" t="n">
+        <v>314962.245</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>1141855.63486</v>
@@ -3732,29 +3462,34 @@
         <v>1918327.0829</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>5254101.01387</v>
+        <v>5254077.8904</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>7405386.134409999</v>
+        <v>7405870.902190001</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>7609681.78365</v>
+        <v>7609684.17571</v>
       </c>
       <c r="K61" s="36" t="n">
-        <v>7429016.1172</v>
+        <v>7429016.117200001</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>8113872.269760001</v>
+        <v>8114772.44517</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>7576596.40609</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>7741420.2625</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>10935788.471</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>671.97758</v>
@@ -3772,10 +3507,10 @@
         <v>3739.18425</v>
       </c>
       <c r="H62" s="37" t="n">
-        <v>4045.72761</v>
+        <v>4046.49111</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>3579.38175</v>
+        <v>3608.88875</v>
       </c>
       <c r="J62" s="37" t="n">
         <v>9534.02641</v>
@@ -3784,17 +3519,22 @@
         <v>17679.92284</v>
       </c>
       <c r="L62" s="36" t="n">
-        <v>18609.07947</v>
+        <v>18612.25947</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>19437.35323999999</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>19440.53324</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>14648.391</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>9192.889660000001</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>7408.259</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>671.97758</v>
@@ -3972,29 +3732,34 @@
         <v>2588.04523</v>
       </c>
       <c r="H67" s="21" t="n">
-        <v>3218.60175</v>
+        <v>3219.36525</v>
       </c>
       <c r="I67" s="22" t="n">
-        <v>3579.38175</v>
+        <v>3608.88875</v>
       </c>
       <c r="J67" s="21" t="n">
         <v>9534.02641</v>
       </c>
       <c r="K67" s="22" t="n">
-        <v>6357.932379999999</v>
+        <v>6357.932380000001</v>
       </c>
       <c r="L67" s="22" t="n">
-        <v>9208.874810000001</v>
+        <v>9212.05481</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>10244.46358</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>10247.64358</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>7240.132</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,21 +3794,26 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
-        <v>634858.58358</v>
+        <v>634858.5835800001</v>
       </c>
       <c r="D69" s="36" t="n">
-        <v>550767.3590599999</v>
+        <v>550767.35906</v>
       </c>
       <c r="E69" s="36" t="n">
-        <v>500409.8903099999</v>
+        <v>500409.89031</v>
       </c>
       <c r="F69" s="37" t="n">
         <v>498432.31582</v>
@@ -4067,14 +3837,19 @@
         <v>178428.06334</v>
       </c>
       <c r="M69" s="36" t="n">
-        <v>373617.6369299999</v>
-      </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+        <v>373831.98693</v>
+      </c>
+      <c r="N69" s="36" t="n">
+        <v>4012112.522</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>0.188</v>
@@ -4089,7 +3864,7 @@
         <v>8010.69245</v>
       </c>
       <c r="G70" s="22" t="n">
-        <v>5534.45668</v>
+        <v>5534.456679999999</v>
       </c>
       <c r="H70" s="21" t="n">
         <v>28745.34319</v>
@@ -4107,14 +3882,19 @@
         <v>19.97166</v>
       </c>
       <c r="M70" s="22" t="n">
-        <v>433.18297</v>
-      </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+        <v>647.53297</v>
+      </c>
+      <c r="N70" s="22" t="n">
+        <v>1678.229</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>461602.22996</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>167929.16872</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>3798276.806</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>3325.65776</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>17852.34743</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>61839.662</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>169930.50786</v>
@@ -4243,7 +4038,7 @@
         <v>133267.48615</v>
       </c>
       <c r="E74" s="22" t="n">
-        <v>47395.21979000001</v>
+        <v>47395.21979</v>
       </c>
       <c r="F74" s="21" t="n">
         <v>18475.00014</v>
@@ -4258,7 +4053,7 @@
         <v>4660.57821</v>
       </c>
       <c r="J74" s="21" t="n">
-        <v>5206.100390000001</v>
+        <v>5206.10039</v>
       </c>
       <c r="K74" s="22" t="n">
         <v>3570.98059</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>187402.93781</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>150317.825</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>14652.99662</v>
@@ -4369,32 +4179,37 @@
         <v>13741.3715</v>
       </c>
       <c r="G77" s="23" t="n">
-        <v>72047.82066999999</v>
+        <v>72047.82067</v>
       </c>
       <c r="H77" s="33" t="n">
-        <v>67157.14291999998</v>
+        <v>67157.14292</v>
       </c>
       <c r="I77" s="23" t="n">
         <v>86382.48522</v>
       </c>
       <c r="J77" s="33" t="n">
-        <v>6416518.26476</v>
+        <v>6416518.264760001</v>
       </c>
       <c r="K77" s="23" t="n">
         <v>6573370.61955</v>
       </c>
       <c r="L77" s="23" t="n">
-        <v>6057189.79024</v>
+        <v>6057189.790240001</v>
       </c>
       <c r="M77" s="23" t="n">
         <v>5179627.27079</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>4358910.844</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>6006.13287</v>
@@ -4498,23 +4323,28 @@
         <v>17912.34517</v>
       </c>
       <c r="J80" s="21" t="n">
-        <v>6345150.718959999</v>
+        <v>6345150.71896</v>
       </c>
       <c r="K80" s="22" t="n">
         <v>6483335.47129</v>
       </c>
       <c r="L80" s="22" t="n">
-        <v>5794228.475379999</v>
+        <v>5794228.47538</v>
       </c>
       <c r="M80" s="22" t="n">
         <v>4822666.448899999</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>4021400.696</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>0</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>2.5</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>2212.125</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>8646.86375</v>
@@ -4621,7 +4461,7 @@
         <v>72699.89155</v>
       </c>
       <c r="K83" s="22" t="n">
-        <v>98157.23900999999</v>
+        <v>98157.23901</v>
       </c>
       <c r="L83" s="22" t="n">
         <v>272816.42985</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>363836.57489</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>353220.526</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>6873.253</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>13498.253</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,15 +4649,20 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
-        <v>93770.48895000001</v>
+        <v>93770.48895</v>
       </c>
       <c r="D88" s="23" t="n">
         <v>130644.56232</v>
@@ -4812,10 +4677,10 @@
         <v>307446.44371</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>322986.44552</v>
+        <v>322984.92976</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>243951.32162</v>
+        <v>243954.82357</v>
       </c>
       <c r="J88" s="33" t="n">
         <v>282986.00993</v>
@@ -4824,17 +4689,22 @@
         <v>296603.08421</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>951847.92351</v>
+        <v>952731.3516700001</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>1128184.38243</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>1142071.97982</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>1418751.126</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>2354.8727</v>
@@ -4858,7 +4728,7 @@
         <v>41151.24143</v>
       </c>
       <c r="J89" s="21" t="n">
-        <v>46913.93955999999</v>
+        <v>46913.93956</v>
       </c>
       <c r="K89" s="22" t="n">
         <v>46349.67406</v>
@@ -4867,14 +4737,19 @@
         <v>90061.55681000001</v>
       </c>
       <c r="M89" s="22" t="n">
-        <v>89268.39628</v>
-      </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+        <v>89593.22027999999</v>
+      </c>
+      <c r="N89" s="22" t="n">
+        <v>99497.489</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>5200.98252</v>
@@ -4883,10 +4758,10 @@
         <v>5284.28078</v>
       </c>
       <c r="E90" s="22" t="n">
-        <v>5531.2959</v>
+        <v>5531.295899999999</v>
       </c>
       <c r="F90" s="21" t="n">
-        <v>5603.011810000001</v>
+        <v>5603.01181</v>
       </c>
       <c r="G90" s="22" t="n">
         <v>542.40403</v>
@@ -4895,7 +4770,7 @@
         <v>1497.31144</v>
       </c>
       <c r="I90" s="22" t="n">
-        <v>401.7098999999999</v>
+        <v>401.7099</v>
       </c>
       <c r="J90" s="21" t="n">
         <v>484.84633</v>
@@ -4907,14 +4782,19 @@
         <v>1242.99232</v>
       </c>
       <c r="M90" s="22" t="n">
-        <v>2811.24232</v>
-      </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+        <v>25412.85424</v>
+      </c>
+      <c r="N90" s="22" t="n">
+        <v>19461.063</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>1317.33255</v>
@@ -4932,7 +4812,7 @@
         <v>2439.39823</v>
       </c>
       <c r="H91" s="21" t="n">
-        <v>7469.02375</v>
+        <v>7469.023749999999</v>
       </c>
       <c r="I91" s="22" t="n">
         <v>12636.72544</v>
@@ -4944,17 +4824,22 @@
         <v>27401.39065</v>
       </c>
       <c r="L91" s="22" t="n">
-        <v>91131.71947000001</v>
+        <v>91131.71947</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>102380.0074</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>108515.39131</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>129506.468</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>94204.02251000001</v>
@@ -4969,10 +4854,10 @@
         <v>247065.69584</v>
       </c>
       <c r="G92" s="22" t="n">
-        <v>292948.9710500001</v>
+        <v>292948.97105</v>
       </c>
       <c r="H92" s="21" t="n">
-        <v>335865.9023700001</v>
+        <v>335865.90237</v>
       </c>
       <c r="I92" s="22" t="n">
         <v>269424.24752</v>
@@ -4984,32 +4869,37 @@
         <v>330052.30995</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>566101.01323</v>
+        <v>566317.88825</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>678044.2033099999</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>708260.4159100001</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>1244908.766</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>11046.52698</v>
       </c>
       <c r="D93" s="22" t="n">
-        <v>23817.53228000001</v>
+        <v>23817.53228</v>
       </c>
       <c r="E93" s="22" t="n">
-        <v>27089.70369</v>
+        <v>27089.70368999999</v>
       </c>
       <c r="F93" s="21" t="n">
         <v>45265.26371</v>
       </c>
       <c r="G93" s="22" t="n">
-        <v>64972.69757</v>
+        <v>64972.69757000001</v>
       </c>
       <c r="H93" s="21" t="n">
         <v>121746.70363</v>
@@ -5024,57 +4914,67 @@
         <v>118338.01409</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>248959.35567</v>
+        <v>248973.55059</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>308007.17161</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>312688.65404</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>341764.31</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
-        <v>40131.38019999999</v>
+        <v>40131.3802</v>
       </c>
       <c r="D94" s="22" t="n">
         <v>35845.25169999999</v>
       </c>
       <c r="E94" s="22" t="n">
-        <v>44270.24201</v>
+        <v>44270.24200999999</v>
       </c>
       <c r="F94" s="21" t="n">
-        <v>47041.99787</v>
+        <v>47041.99787000001</v>
       </c>
       <c r="G94" s="22" t="n">
-        <v>49149.06209</v>
+        <v>49149.06208999999</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>52146.77227999999</v>
+        <v>52146.77228</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>53592.29335</v>
+        <v>53734.51344999999</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>56370.00337</v>
+        <v>56370.00336999999</v>
       </c>
       <c r="K94" s="22" t="n">
         <v>30892.6536</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>464092.41363</v>
+        <v>464926.83941</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>539338.5012800001</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>546716.64949</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>614816.129</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>0.001</v>
@@ -5109,18 +5009,23 @@
       <c r="M95" s="22" t="n">
         <v>272.27419</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>3506.692</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>63335.60664</v>
       </c>
       <c r="D96" s="22" t="n">
-        <v>91721.14113999999</v>
+        <v>91721.14114000002</v>
       </c>
       <c r="E96" s="22" t="n">
         <v>117874.53504</v>
@@ -5132,10 +5037,10 @@
         <v>221386.08506</v>
       </c>
       <c r="H96" s="21" t="n">
-        <v>300346.71648</v>
+        <v>300348.2322399999</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>308706.92628</v>
+        <v>308845.64443</v>
       </c>
       <c r="J96" s="21" t="n">
         <v>319638.00071</v>
@@ -5144,17 +5049,22 @@
         <v>332119.78414</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>573848.01036</v>
+        <v>574030.07792</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>741545.27746</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>798995.3431500001</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>1188596.794</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>2475.29045</v>
@@ -5163,19 +5073,19 @@
         <v>7804.37596</v>
       </c>
       <c r="E97" s="22" t="n">
-        <v>6545.705909999999</v>
+        <v>6545.705910000001</v>
       </c>
       <c r="F97" s="21" t="n">
         <v>14457.14488</v>
       </c>
       <c r="G97" s="22" t="n">
-        <v>85607.35322000002</v>
+        <v>85607.35321999999</v>
       </c>
       <c r="H97" s="21" t="n">
         <v>85865.08775000001</v>
       </c>
       <c r="I97" s="22" t="n">
-        <v>52940.85441</v>
+        <v>52940.85441000001</v>
       </c>
       <c r="J97" s="21" t="n">
         <v>88007.93515999999</v>
@@ -5187,14 +5097,19 @@
         <v>63448.6609</v>
       </c>
       <c r="M97" s="22" t="n">
-        <v>58295.72792</v>
-      </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+        <v>58295.72793000001</v>
+      </c>
+      <c r="N97" s="22" t="n">
+        <v>64067.677</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>375.68668</v>
@@ -5209,7 +5124,7 @@
         <v>87.83609</v>
       </c>
       <c r="G98" s="22" t="n">
-        <v>17585.12058999999</v>
+        <v>17585.12059</v>
       </c>
       <c r="H98" s="21" t="n">
         <v>1430.99184</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>91312.13558000002</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>89819.326</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>15245.58069</v>
@@ -5243,7 +5163,7 @@
         <v>16705.9455</v>
       </c>
       <c r="E99" s="23" t="n">
-        <v>36875.96122999999</v>
+        <v>36875.96123</v>
       </c>
       <c r="F99" s="33" t="n">
         <v>24934.18487</v>
@@ -5252,32 +5172,37 @@
         <v>23825.41143</v>
       </c>
       <c r="H99" s="33" t="n">
-        <v>42250.25342</v>
+        <v>42227.30414999999</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>80221.09139</v>
+        <v>80669.05559999999</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>88387.43629000001</v>
+        <v>88389.82835000001</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>88241.36884000001</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>510474.59486</v>
+        <v>510481.86044</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>499111.48493</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>518351.60648</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>574498.276</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
-        <v>7120.34514</v>
+        <v>7120.345139999999</v>
       </c>
       <c r="D100" s="22" t="n">
         <v>8071.90346</v>
@@ -5307,14 +5232,19 @@
         <v>538837.0743</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>546724.90643</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>565863.8278099999</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>640269.152</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,15 +5279,20 @@
       <c r="M101" s="22" t="n">
         <v>143.868</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>143.868</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
-        <v>78.68020999999999</v>
+        <v>78.68021</v>
       </c>
       <c r="D102" s="22" t="n">
         <v>126.31191</v>
@@ -5375,26 +5310,31 @@
         <v>146.92703</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>151.23416</v>
+        <v>153.67104</v>
       </c>
       <c r="J102" s="21" t="n">
-        <v>158.21559</v>
+        <v>161.2499</v>
       </c>
       <c r="K102" s="22" t="n">
         <v>171.26282</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>224.54349</v>
+        <v>231.46719</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>177.50538</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>189.47426</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>179.776</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>3423.10218</v>
@@ -5415,7 +5355,7 @@
         <v>3912.03571</v>
       </c>
       <c r="I103" s="22" t="n">
-        <v>3912.03571</v>
+        <v>3912.035710000001</v>
       </c>
       <c r="J103" s="21" t="n">
         <v>3912.03571</v>
@@ -5429,18 +5369,23 @@
       <c r="M103" s="22" t="n">
         <v>3205.66091</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>3367.744</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
-        <v>6086.37224</v>
+        <v>6086.372240000001</v>
       </c>
       <c r="D104" s="22" t="n">
-        <v>7426.686769999999</v>
+        <v>7426.68677</v>
       </c>
       <c r="E104" s="22" t="n">
         <v>11160.07773</v>
@@ -5455,7 +5400,7 @@
         <v>11183.84782</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>9276.78774</v>
+        <v>9964.163879999998</v>
       </c>
       <c r="J104" s="21" t="n">
         <v>10440.06156</v>
@@ -5464,17 +5409,22 @@
         <v>12976.78581</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>11908.74242</v>
+        <v>11909.94612</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>13613.82235</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>14773.37283</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>18432.635</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>2658.77576</v>
@@ -5486,7 +5436,7 @@
         <v>4063.79415</v>
       </c>
       <c r="F105" s="21" t="n">
-        <v>4347.67224</v>
+        <v>4347.672239999999</v>
       </c>
       <c r="G105" s="22" t="n">
         <v>5215.662979999999</v>
@@ -5495,32 +5445,37 @@
         <v>5530.83537</v>
       </c>
       <c r="I105" s="22" t="n">
-        <v>3664.01243</v>
+        <v>6295.85899</v>
       </c>
       <c r="J105" s="21" t="n">
-        <v>7262.18527</v>
+        <v>7262.185270000001</v>
       </c>
       <c r="K105" s="22" t="n">
-        <v>9461.548629999999</v>
+        <v>9461.548630000001</v>
       </c>
       <c r="L105" s="22" t="n">
         <v>12517.84131</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>10191.66342</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>20089.32749</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>17428.007</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>4121.69484</v>
       </c>
       <c r="D106" s="22" t="n">
-        <v>6567.896319999999</v>
+        <v>6567.896320000001</v>
       </c>
       <c r="E106" s="22" t="n">
         <v>9633.928780000002</v>
@@ -5532,29 +5487,34 @@
         <v>14156.20436</v>
       </c>
       <c r="H106" s="21" t="n">
-        <v>18025.15465</v>
+        <v>18048.10392</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>19432.53237</v>
+        <v>22306.22774</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>30810.47276</v>
+        <v>30811.11501</v>
       </c>
       <c r="K106" s="22" t="n">
         <v>38081.39435</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>56363.13557</v>
+        <v>56363.99739</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>74945.94156000001</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>85913.92481999999</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>105322.906</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>382134.17507</v>
@@ -5615,10 +5580,10 @@
         <v>651023.87307</v>
       </c>
       <c r="I108" s="23" t="n">
-        <v>871149.2950999999</v>
+        <v>871149.2951</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>673674.61436</v>
+        <v>673674.6143600001</v>
       </c>
       <c r="K108" s="23" t="n">
         <v>304277.16693</v>
@@ -5627,14 +5592,19 @@
         <v>328329.06614</v>
       </c>
       <c r="M108" s="23" t="n">
-        <v>318334.0061</v>
-      </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+        <v>448110.51858</v>
+      </c>
+      <c r="N108" s="23" t="n">
+        <v>460032</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>382426.99024</v>
@@ -5655,7 +5625,7 @@
         <v>650241.7959500001</v>
       </c>
       <c r="I109" s="22" t="n">
-        <v>870346.4427199999</v>
+        <v>870346.4427200001</v>
       </c>
       <c r="J109" s="21" t="n">
         <v>672773.70969</v>
@@ -5667,14 +5637,19 @@
         <v>268249.0046</v>
       </c>
       <c r="M109" s="22" t="n">
-        <v>271585.69851</v>
-      </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+        <v>280035.56785</v>
+      </c>
+      <c r="N109" s="22" t="n">
+        <v>312679.518</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>663.34371</v>
@@ -5707,14 +5682,19 @@
         <v>3964.85249</v>
       </c>
       <c r="M110" s="22" t="n">
-        <v>2025.62107</v>
-      </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+        <v>3538.64482</v>
+      </c>
+      <c r="N110" s="22" t="n">
+        <v>22833.002</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>24.8314</v>
@@ -5747,14 +5727,19 @@
         <v>83820.30847</v>
       </c>
       <c r="M111" s="22" t="n">
-        <v>83889.70615000001</v>
-      </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+        <v>412503.42158</v>
+      </c>
+      <c r="N111" s="22" t="n">
+        <v>371395.201</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>1007.39903</v>
@@ -5787,14 +5772,19 @@
         <v>27705.09942</v>
       </c>
       <c r="M112" s="22" t="n">
-        <v>39167.01963</v>
-      </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+        <v>247967.11567</v>
+      </c>
+      <c r="N112" s="22" t="n">
+        <v>246875.721</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>26.40875</v>
@@ -5829,18 +5819,23 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>521.8323700000001</v>
       </c>
       <c r="D114" s="23" t="n">
-        <v>469.6810199999999</v>
+        <v>469.68102</v>
       </c>
       <c r="E114" s="23" t="n">
         <v>1266.84476</v>
@@ -5849,13 +5844,13 @@
         <v>4836.504449999999</v>
       </c>
       <c r="G114" s="23" t="n">
-        <v>7124.68405</v>
+        <v>7124.684050000001</v>
       </c>
       <c r="H114" s="33" t="n">
-        <v>5479.506020000001</v>
+        <v>5480.08408</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>12113.87321</v>
+        <v>12117.66783</v>
       </c>
       <c r="J114" s="33" t="n">
         <v>12358.10107</v>
@@ -5864,23 +5859,28 @@
         <v>13485.03854</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>34073.15947</v>
+        <v>34079.46114</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>18327.00117</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>20011.07436</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>23259.692</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>521.8323700000001</v>
       </c>
       <c r="D115" s="22" t="n">
-        <v>469.6810199999999</v>
+        <v>469.68102</v>
       </c>
       <c r="E115" s="22" t="n">
         <v>1266.84476</v>
@@ -5889,13 +5889,13 @@
         <v>4836.504449999999</v>
       </c>
       <c r="G115" s="22" t="n">
-        <v>7124.68405</v>
+        <v>7124.684050000001</v>
       </c>
       <c r="H115" s="21" t="n">
-        <v>5479.506020000001</v>
+        <v>5480.08408</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>12113.87321</v>
+        <v>12117.66783</v>
       </c>
       <c r="J115" s="21" t="n">
         <v>12358.10107</v>
@@ -5904,17 +5904,22 @@
         <v>13485.03854</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>34073.15947</v>
+        <v>34079.46114</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>18327.00117</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>20011.07436</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>22994.518</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>265.174</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>0</v>
@@ -5987,14 +5997,19 @@
         <v>34920.59273</v>
       </c>
       <c r="M117" s="23" t="n">
-        <v>39957.2705</v>
-      </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+        <v>39975.29229999999</v>
+      </c>
+      <c r="N117" s="23" t="n">
+        <v>73575.62</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>570.2513399999999</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>5.819</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>289.70608</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>559.871</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6175,7 +6210,7 @@
         <v>136.6581</v>
       </c>
       <c r="I122" s="22" t="n">
-        <v>85.41551</v>
+        <v>85.41551000000001</v>
       </c>
       <c r="J122" s="21" t="n">
         <v>80.93001</v>
@@ -6187,14 +6222,19 @@
         <v>29260.91158</v>
       </c>
       <c r="M122" s="22" t="n">
-        <v>38805.47745</v>
-      </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+        <v>38805.47745000001</v>
+      </c>
+      <c r="N122" s="22" t="n">
+        <v>62188.51</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>192.57013</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6347,14 +6402,19 @@
         <v>5557.894</v>
       </c>
       <c r="M126" s="22" t="n">
-        <v>484.40576</v>
-      </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+        <v>502.42756</v>
+      </c>
+      <c r="N126" s="22" t="n">
+        <v>10821.268</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>1378318.60337</v>
@@ -6372,26 +6432,29 @@
         <v>2993161.17288</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>6606143.92183</v>
+        <v>6606087.859060001</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>8713573.68839</v>
+        <v>8735745.342540001</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>9341056.767449999</v>
+        <v>9341129.94499</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>9117801.4704</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>11893823.23953</v>
+        <v>11994660.1448</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>12925658.88367</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>13596376.01066</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>20109843.53</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>09-Mining support service activities</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,21 +6553,26 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
-        <v>489375.59963</v>
+        <v>489375.5996300001</v>
       </c>
       <c r="D132" s="23" t="n">
         <v>986937.00124</v>
       </c>
       <c r="E132" s="23" t="n">
-        <v>1735274.267449999</v>
+        <v>1735274.26745</v>
       </c>
       <c r="F132" s="33" t="n">
         <v>1804903.21314</v>
@@ -6504,38 +6581,43 @@
         <v>1879524.31064</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>1994046.26336</v>
+        <v>1994075.61555</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>1727824.14957</v>
+        <v>1731862.3936</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>2363264.36336</v>
+        <v>2363279.88735</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>2011915.15064</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>4353414.512200001</v>
+        <v>4491346.752359999</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>5627982.505820001</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>5936556.875030001</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>7650625.857</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>92648.45453</v>
       </c>
       <c r="D133" s="23" t="n">
-        <v>9725.74654</v>
+        <v>9725.746539999998</v>
       </c>
       <c r="E133" s="23" t="n">
-        <v>7466.669010000001</v>
+        <v>7466.66901</v>
       </c>
       <c r="F133" s="33" t="n">
         <v>14113.92801</v>
@@ -6550,29 +6632,34 @@
         <v>54060.21271</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>71740.02179</v>
+        <v>71740.02180000002</v>
       </c>
       <c r="K133" s="23" t="n">
-        <v>39639.56798000001</v>
+        <v>39639.56797999999</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>174141.71098</v>
+        <v>174141.71099</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>224569.22585</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>224569.467</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>374575.951</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
-        <v>92620.43827</v>
+        <v>92620.43827000001</v>
       </c>
       <c r="D134" s="22" t="n">
-        <v>9686.441329999998</v>
+        <v>9686.44133</v>
       </c>
       <c r="E134" s="22" t="n">
         <v>7233.22168</v>
@@ -6590,23 +6677,28 @@
         <v>31171.18466</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>41718.65013</v>
+        <v>41718.65014</v>
       </c>
       <c r="K134" s="22" t="n">
         <v>35605.88187999999</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>114969.66389</v>
+        <v>114969.6639</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>146057.18439</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>146057.42454</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>295244.713</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>0</v>
@@ -6630,7 +6722,7 @@
         <v>221.03959</v>
       </c>
       <c r="J135" s="21" t="n">
-        <v>5258.670980000001</v>
+        <v>5258.67098</v>
       </c>
       <c r="K135" s="22" t="n">
         <v>1264.71346</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>48817.44402</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>45029.421</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>0</v>
@@ -6676,17 +6773,22 @@
         <v>175.46613</v>
       </c>
       <c r="L136" s="22" t="n">
-        <v>2995.904039999999</v>
+        <v>2995.90404</v>
       </c>
       <c r="M136" s="22" t="n">
         <v>333.30575</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>601.798</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>28.01626</v>
@@ -6716,17 +6818,22 @@
         <v>2716.45594</v>
       </c>
       <c r="L137" s="22" t="n">
-        <v>24126.74807</v>
+        <v>24126.74807000001</v>
       </c>
       <c r="M137" s="22" t="n">
-        <v>8001.76116</v>
-      </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+        <v>8001.761159999999</v>
+      </c>
+      <c r="N137" s="22" t="n">
+        <v>7368.762</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>0</v>
@@ -6904,7 +7031,7 @@
         <v>244.29425</v>
       </c>
       <c r="H142" s="21" t="n">
-        <v>548.1706200000001</v>
+        <v>548.17062</v>
       </c>
       <c r="I142" s="22" t="n">
         <v>240.73145</v>
@@ -6919,17 +7046,22 @@
         <v>1666.42879</v>
       </c>
       <c r="M142" s="22" t="n">
-        <v>22026.14203</v>
-      </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+        <v>22026.14303</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>27534.853</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
-        <v>49486.93961</v>
+        <v>49486.93961000001</v>
       </c>
       <c r="D143" s="46" t="n">
         <v>65223.75122</v>
@@ -6944,29 +7076,34 @@
         <v>197861.81653</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>329524.06806</v>
+        <v>329538.67949</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>213246.96023</v>
+        <v>213249.70779</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>274211.3403</v>
+        <v>274226.5164</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>308922.56938</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>516958.8556</v>
+        <v>601469.73003</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>666056.4258300001</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>777380.8042799999</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>1542360.478</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>48089.35034</v>
@@ -6984,29 +7121,34 @@
         <v>180818.93586</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>259104.35299</v>
+        <v>259118.96442</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>203440.7409</v>
+        <v>203443.48846</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>257367.13224</v>
+        <v>257374.04834</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>284656.16114</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>489510.36558</v>
+        <v>573990.46748</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>636550.65429</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>747316.16935</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>1441008.57</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>472.26822</v>
@@ -7027,7 +7169,7 @@
         <v>67084.65569</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>4692.738880000001</v>
+        <v>4692.73888</v>
       </c>
       <c r="J145" s="24" t="n">
         <v>3209.09059</v>
@@ -7039,14 +7181,19 @@
         <v>13925.86933</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>12011.93867</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>12461.03367</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>30365.787</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>303.56458</v>
@@ -7107,32 +7259,37 @@
         <v>1244.19466</v>
       </c>
       <c r="I147" s="25" t="n">
-        <v>815.10276</v>
+        <v>815.1027599999999</v>
       </c>
       <c r="J147" s="24" t="n">
-        <v>960.25829</v>
+        <v>960.2582899999999</v>
       </c>
       <c r="K147" s="25" t="n">
         <v>3560.15711</v>
       </c>
       <c r="L147" s="25" t="n">
-        <v>4564.67403</v>
+        <v>4588.61824</v>
       </c>
       <c r="M147" s="25" t="n">
-        <v>7490.88678</v>
-      </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+        <v>7514.83099</v>
+      </c>
+      <c r="N147" s="25" t="n">
+        <v>8324.894</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>621.7564699999999</v>
       </c>
       <c r="D148" s="25" t="n">
-        <v>834.4367400000001</v>
+        <v>834.43674</v>
       </c>
       <c r="E148" s="25" t="n">
         <v>1355.89779</v>
@@ -7150,23 +7307,28 @@
         <v>4298.37769</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>12674.85918</v>
+        <v>12683.11918</v>
       </c>
       <c r="K148" s="25" t="n">
-        <v>5875.967210000001</v>
+        <v>5875.96721</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>8957.94666</v>
+        <v>8964.77498</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>10002.94609</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>10088.77027</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>62661.227</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>131142.11298</v>
@@ -7196,17 +7358,22 @@
         <v>201955.18594</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>296367.68767</v>
+        <v>308853.0672100001</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>541713.2178</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>637159.75975</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>667478.9449999999</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>28642.29452</v>
@@ -7218,35 +7385,40 @@
         <v>38712.83948</v>
       </c>
       <c r="F150" s="21" t="n">
-        <v>35617.38048</v>
+        <v>35617.38048000001</v>
       </c>
       <c r="G150" s="22" t="n">
         <v>41437.70017</v>
       </c>
       <c r="H150" s="21" t="n">
-        <v>36461.89198</v>
+        <v>36461.89198000001</v>
       </c>
       <c r="I150" s="22" t="n">
         <v>46030.87776</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>61154.19735</v>
+        <v>61154.19734999999</v>
       </c>
       <c r="K150" s="22" t="n">
         <v>89615.35385</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>116050.94969</v>
+        <v>119197.069</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>105190.62361</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>106120.18149</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>163573.335</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>5168.82849</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>225.575</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>32.20977</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>41852.62868</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>68800.09</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>1064.82364</v>
@@ -7338,7 +7520,7 @@
         <v>1782.269</v>
       </c>
       <c r="F153" s="21" t="n">
-        <v>6445.2479</v>
+        <v>6445.247900000001</v>
       </c>
       <c r="G153" s="22" t="n">
         <v>10812.63939</v>
@@ -7356,17 +7538,22 @@
         <v>12798.10432</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>17503.13188</v>
+        <v>20155.49513</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>15610.86724</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>15745.23788</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>34045.049</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>101402.78505</v>
@@ -7381,7 +7568,7 @@
         <v>112387.03778</v>
       </c>
       <c r="G154" s="22" t="n">
-        <v>95851.86279999999</v>
+        <v>95851.8628</v>
       </c>
       <c r="H154" s="21" t="n">
         <v>113246.15008</v>
@@ -7396,17 +7583,22 @@
         <v>80056.33120999999</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>131175.14151</v>
+        <v>137862.03849</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>373890.26978</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>468272.8832100001</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>400834.896</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,15 +7633,20 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
-        <v>974.7385899999999</v>
+        <v>974.73859</v>
       </c>
       <c r="D156" s="23" t="n">
         <v>54016.46591000001</v>
@@ -7464,10 +7661,10 @@
         <v>27725.94086</v>
       </c>
       <c r="H156" s="33" t="n">
-        <v>71728.97283999999</v>
+        <v>71728.97284</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>83766.21561</v>
+        <v>83766.21560999998</v>
       </c>
       <c r="J156" s="33" t="n">
         <v>121704.85974</v>
@@ -7476,17 +7673,22 @@
         <v>156607.44265</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>358835.43755</v>
+        <v>358863.23755</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>457882.25981</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>501428.51042</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>226453.991</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>631.0969099999999</v>
@@ -7507,7 +7709,7 @@
         <v>71632.96644</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>83726.01811</v>
+        <v>83726.01810999999</v>
       </c>
       <c r="J157" s="21" t="n">
         <v>116917.435</v>
@@ -7516,17 +7718,22 @@
         <v>150140.93416</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>303638.68015</v>
+        <v>303666.48015</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>401510.97004</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>445057.22065</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>207810.15</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>343.64168</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>56371.28977</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>18643.841</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7593,7 +7805,7 @@
         <v>19.55</v>
       </c>
       <c r="K159" s="23" t="n">
-        <v>57689.41309999999</v>
+        <v>57689.4131</v>
       </c>
       <c r="L159" s="23" t="n">
         <v>1000474.31113</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>1336169.97256</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>1565070.87</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>1336169.97256</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>1565070.87</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>10556.38754</v>
@@ -7695,7 +7922,7 @@
         <v>11712.50011</v>
       </c>
       <c r="E162" s="23" t="n">
-        <v>36031.95469</v>
+        <v>36031.95469000001</v>
       </c>
       <c r="F162" s="33" t="n">
         <v>24653.98973</v>
@@ -7704,29 +7931,34 @@
         <v>34496.06206</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>62411.12413</v>
+        <v>62425.86489000001</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>68602.20062999999</v>
+        <v>68634.28232000001</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>53955.08396</v>
+        <v>53955.43184</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>55971.15398</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>112077.8888</v>
+        <v>115034.11588</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>142333.53697</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>149862.93673</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>226490.919</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>6625.1634</v>
@@ -7735,7 +7967,7 @@
         <v>5802.94098</v>
       </c>
       <c r="E163" s="22" t="n">
-        <v>28431.1876</v>
+        <v>28431.18759999999</v>
       </c>
       <c r="F163" s="21" t="n">
         <v>12277.71892</v>
@@ -7744,29 +7976,34 @@
         <v>17379.72809</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>40770.99428</v>
+        <v>40785.73502</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>37881.53440999999</v>
+        <v>37908.23543</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>17355.91039</v>
+        <v>17356.25827</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>20973.99018</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>77459.01658</v>
+        <v>80356.66437</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>101450.44584</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>108265.97163</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>167795.122</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>2113.50993</v>
@@ -7784,29 +8021,34 @@
         <v>3429.25902</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>3821.33505</v>
+        <v>3821.33507</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>3494.78509</v>
+        <v>3500.16576</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>4370.60027</v>
+        <v>4370.600270000001</v>
       </c>
       <c r="K164" s="22" t="n">
-        <v>8684.288149999998</v>
+        <v>8684.28815</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>20486.27351</v>
+        <v>20530.91149</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>25561.47295</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>26248.69103</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>19726.531</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>1276.41158</v>
@@ -7815,10 +8057,10 @@
         <v>3892.56844</v>
       </c>
       <c r="E165" s="22" t="n">
-        <v>5068.50962</v>
+        <v>5068.509619999999</v>
       </c>
       <c r="F165" s="21" t="n">
-        <v>9400.64467</v>
+        <v>9400.644670000001</v>
       </c>
       <c r="G165" s="22" t="n">
         <v>13004.18787</v>
@@ -7836,17 +8078,22 @@
         <v>25845.93595</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>14027.67986</v>
+        <v>14041.62117</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>15198.60597</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>15225.26186</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>38674.809</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>541.30263</v>
@@ -7881,21 +8128,26 @@
       <c r="M166" s="22" t="n">
         <v>123.01221</v>
       </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+      <c r="N166" s="22" t="n">
+        <v>294.457</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
-        <v>4884.413090000001</v>
+        <v>4884.41309</v>
       </c>
       <c r="D167" s="23" t="n">
         <v>1201.90823</v>
       </c>
       <c r="E167" s="23" t="n">
-        <v>6705.677320000002</v>
+        <v>6705.677320000001</v>
       </c>
       <c r="F167" s="33" t="n">
         <v>3842.70232</v>
@@ -7916,17 +8168,22 @@
         <v>2786.77136</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>8062.487870000001</v>
+        <v>8076.83292</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>12760.72993</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>14505.23115</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>20825.097</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>4208.08432</v>
@@ -7956,17 +8213,22 @@
         <v>16172.88363</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>43982.81217</v>
+        <v>44052.88</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>151282.19175</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>151954.51208</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>133836.378</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>484.78883</v>
@@ -7996,17 +8258,22 @@
         <v>14443.73867</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>39072.83045</v>
+        <v>39128.55323</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>143982.7563</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>142910.57541</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>116529.466</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>5461.29448</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>3518.185</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>1161.1176</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>56443.00863</v>
@@ -8150,23 +8432,28 @@
         <v>66827.61856</v>
       </c>
       <c r="J173" s="33" t="n">
-        <v>75495.65937000002</v>
+        <v>75495.65937000001</v>
       </c>
       <c r="K173" s="23" t="n">
-        <v>22437.02426000001</v>
+        <v>22437.02426</v>
       </c>
       <c r="L173" s="23" t="n">
         <v>79589.63165000001</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>62521.68265</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>68768.29588999999</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>40330.985</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>0</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>3310.15684</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>245.839</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>56443.00863</v>
@@ -8227,26 +8519,31 @@
         <v>169787.46409</v>
       </c>
       <c r="I175" s="22" t="n">
-        <v>66714.70809</v>
+        <v>66714.70809000001</v>
       </c>
       <c r="J175" s="21" t="n">
-        <v>75495.65937000002</v>
+        <v>75495.65937000001</v>
       </c>
       <c r="K175" s="22" t="n">
-        <v>22437.02426000001</v>
+        <v>22437.02426</v>
       </c>
       <c r="L175" s="22" t="n">
-        <v>79288.54915000001</v>
+        <v>79288.54914999999</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>59211.52581</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>65458.13905</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>40085.146</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>143239.54466</v>
@@ -8267,7 +8564,7 @@
         <v>1163740.19856</v>
       </c>
       <c r="I176" s="23" t="n">
-        <v>1026920.33838</v>
+        <v>1030923.75316</v>
       </c>
       <c r="J176" s="33" t="n">
         <v>1571355.44065</v>
@@ -8276,17 +8573,22 @@
         <v>1165906.02199</v>
       </c>
       <c r="L176" s="23" t="n">
-        <v>1806906.50095</v>
+        <v>1844844.115</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>2183975.454420001</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>2226711.89725</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>2987038.621</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>0</v>
@@ -8319,14 +8621,19 @@
         <v>19.23645</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>26.18123</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>102.98562</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>3.851</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0</v>
@@ -8361,18 +8668,23 @@
       <c r="M178" s="22" t="n">
         <v>36</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>36</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>143239.54466</v>
       </c>
       <c r="D179" s="22" t="n">
-        <v>465946.1657200001</v>
+        <v>465946.16572</v>
       </c>
       <c r="E179" s="22" t="n">
         <v>1036434.5898</v>
@@ -8387,7 +8699,7 @@
         <v>1163735.62784</v>
       </c>
       <c r="I179" s="22" t="n">
-        <v>1026904.46751</v>
+        <v>1030907.88229</v>
       </c>
       <c r="J179" s="21" t="n">
         <v>1571149.31168</v>
@@ -8396,17 +8708,22 @@
         <v>1165858.96211</v>
       </c>
       <c r="L179" s="22" t="n">
-        <v>1806851.2645</v>
+        <v>1844788.87855</v>
       </c>
       <c r="M179" s="22" t="n">
-        <v>2183913.27319</v>
-      </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+        <v>2226572.91163</v>
+      </c>
+      <c r="N179" s="22" t="n">
+        <v>2986998.77</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,15 +8803,20 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
-        <v>586518.64805</v>
+        <v>586518.6480500001</v>
       </c>
       <c r="D182" s="23" t="n">
         <v>524544.51064</v>
@@ -8507,26 +8834,31 @@
         <v>3885402.52281</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>6505090.57177</v>
+        <v>6505090.571769999</v>
       </c>
       <c r="J182" s="33" t="n">
-        <v>9416475.077390002</v>
+        <v>9416475.07739</v>
       </c>
       <c r="K182" s="23" t="n">
         <v>11658819.63534</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>15910589.01094</v>
+        <v>15910650.32002</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>16468694.4964</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>16616259.69563</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>23640300.285</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>30779.29924</v>
@@ -8544,7 +8876,7 @@
         <v>199731.41921</v>
       </c>
       <c r="H183" s="33" t="n">
-        <v>215963.526</v>
+        <v>215963.5260000001</v>
       </c>
       <c r="I183" s="23" t="n">
         <v>278572.3684</v>
@@ -8553,20 +8885,25 @@
         <v>59423.10597</v>
       </c>
       <c r="K183" s="23" t="n">
-        <v>66554.10026000001</v>
+        <v>66554.10025999999</v>
       </c>
       <c r="L183" s="23" t="n">
         <v>248152.44575</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>187169.32418</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>315571.43928</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>300658.683</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>30309.33875</v>
@@ -8593,20 +8930,25 @@
         <v>38997.34709</v>
       </c>
       <c r="K184" s="22" t="n">
-        <v>51518.52971000001</v>
+        <v>51518.52971</v>
       </c>
       <c r="L184" s="22" t="n">
         <v>122170.85318</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>120496.33697</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>241792.93124</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>239304.304</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>543.18591</v>
@@ -8636,17 +8978,22 @@
         <v>15856.35642</v>
       </c>
       <c r="L185" s="22" t="n">
-        <v>58115.44838</v>
+        <v>58115.44837999999</v>
       </c>
       <c r="M185" s="22" t="n">
-        <v>40074.16501999999</v>
-      </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+        <v>48072.83005</v>
+      </c>
+      <c r="N185" s="22" t="n">
+        <v>53318.049</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>73.22542</v>
@@ -8679,14 +9026,19 @@
         <v>3573.35557</v>
       </c>
       <c r="M186" s="22" t="n">
-        <v>1680.1127</v>
-      </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+        <v>2573.2569</v>
+      </c>
+      <c r="N186" s="22" t="n">
+        <v>1095.769</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>28278.93489</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>9132.099</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>731.23601</v>
@@ -8876,17 +9248,22 @@
         <v>237200.69562</v>
       </c>
       <c r="L191" s="23" t="n">
-        <v>48209.9462</v>
+        <v>48209.94620000001</v>
       </c>
       <c r="M191" s="23" t="n">
         <v>57263.95948</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>129385.145</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>731.23601</v>
@@ -8916,17 +9293,22 @@
         <v>225204.18962</v>
       </c>
       <c r="L192" s="22" t="n">
-        <v>37028.78259999999</v>
+        <v>37028.7826</v>
       </c>
       <c r="M192" s="22" t="n">
         <v>43201.95228</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>114779.666</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>0</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>3711.80576</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>4144.451</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>31.528</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,15 +9478,20 @@
       <c r="M196" s="22" t="n">
         <v>10350.20144</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>10429.5</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
-        <v>546449.45027</v>
+        <v>546449.4502700001</v>
       </c>
       <c r="D197" s="23" t="n">
         <v>498031.98819</v>
@@ -9107,7 +9509,7 @@
         <v>3486329.71916</v>
       </c>
       <c r="I197" s="23" t="n">
-        <v>6043294.047199999</v>
+        <v>6043294.0472</v>
       </c>
       <c r="J197" s="33" t="n">
         <v>9136620.99281</v>
@@ -9116,17 +9518,22 @@
         <v>11345282.65219</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>15594723.84795</v>
+        <v>15594785.15703</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>16164065.3096</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>16183228.39373</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>22908955.145</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>464677.94256</v>
@@ -9135,19 +9542,19 @@
         <v>417832.7596</v>
       </c>
       <c r="E198" s="22" t="n">
-        <v>288438.9142999999</v>
+        <v>288438.9143</v>
       </c>
       <c r="F198" s="21" t="n">
         <v>153184.45259</v>
       </c>
       <c r="G198" s="22" t="n">
-        <v>597543.15129</v>
+        <v>597543.1512900001</v>
       </c>
       <c r="H198" s="21" t="n">
-        <v>3478453.11804</v>
+        <v>3478453.118040001</v>
       </c>
       <c r="I198" s="22" t="n">
-        <v>6031202.347999999</v>
+        <v>6031202.348</v>
       </c>
       <c r="J198" s="21" t="n">
         <v>9109204.177440001</v>
@@ -9156,17 +9563,22 @@
         <v>11301869.91966</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>15537020.39394</v>
+        <v>15537081.70302</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>16105535.09101</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>16124680.15334</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>22828788.108</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>4089.52679</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>4936.814</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,18 +9658,23 @@
       <c r="M200" s="22" t="n">
         <v>386.40254</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>307.578</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>80309.23555</v>
       </c>
       <c r="D201" s="22" t="n">
-        <v>80175.75536999998</v>
+        <v>80175.75537</v>
       </c>
       <c r="E201" s="22" t="n">
         <v>76858.39436000001</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>52414.99511</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>63930.405</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>1462.27216</v>
@@ -9359,14 +9791,19 @@
         <v>2942.79054</v>
       </c>
       <c r="M203" s="22" t="n">
-        <v>1639.29415</v>
-      </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+        <v>1657.31595</v>
+      </c>
+      <c r="N203" s="22" t="n">
+        <v>10992.24</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>6978.239550000001</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>11984.07619</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>240136.775</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>2856.74031</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>11984.07619</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>161529.462</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>4121.49924</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>78607.31299999999</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>1576.59798</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>29728.46918</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>58254.271</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>1569.33589</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>29002.75218</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>57530.009</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>7.26209</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>725.717</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>724.2619999999999</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>3.825</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>18483.35777</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>2910.119</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>3.825</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>18482.26701</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>0</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>1.09076</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>2910.119</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,15 +10378,20 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
-        <v>302424.35569</v>
+        <v>302424.3556900001</v>
       </c>
       <c r="D217" s="23" t="n">
         <v>390354.18614</v>
@@ -9901,56 +10403,61 @@
         <v>1371092.35423</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>-532703.65856</v>
+        <v>-532703.6585600001</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>726695.1356599998</v>
+        <v>726609.7207000001</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>480658.9670500001</v>
+        <v>498792.3771700001</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>-2438682.6733</v>
+        <v>-2438625.01975</v>
       </c>
       <c r="K217" s="23" t="n">
-        <v>-4552933.315580001</v>
+        <v>-4552933.31558</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>-8370180.28361</v>
+        <v>-8407336.927580003</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>-9171018.118550001</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>-8956440.560000001</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>-11181082.612</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
-        <v>268177.15229</v>
+        <v>268177.1522899999</v>
       </c>
       <c r="D218" s="23" t="n">
         <v>441445.29088</v>
       </c>
       <c r="E218" s="23" t="n">
-        <v>705663.40579</v>
+        <v>705663.4057900001</v>
       </c>
       <c r="F218" s="33" t="n">
         <v>741448.3329999999</v>
       </c>
       <c r="G218" s="23" t="n">
-        <v>911339.0719999999</v>
+        <v>911339.072</v>
       </c>
       <c r="H218" s="33" t="n">
         <v>1464272.36433</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>2166859.63869</v>
+        <v>2490258.66228</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>2570589.03206</v>
+        <v>2570674.03206</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>2588672.94694</v>
@@ -9959,14 +10466,19 @@
         <v>2935274.48968</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>3079175.80766</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>3085360.97133</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>4091935.565</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>283748.21247</v>
@@ -9975,7 +10487,7 @@
         <v>464578.90428</v>
       </c>
       <c r="E219" s="22" t="n">
-        <v>743713.4719199999</v>
+        <v>743713.47192</v>
       </c>
       <c r="F219" s="21" t="n">
         <v>811377.35782</v>
@@ -9987,41 +10499,46 @@
         <v>2598209.69793</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>3285693.43382</v>
+        <v>3609092.45741</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>3688381.53233</v>
+        <v>3688541.53233</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>3707572.03832</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>4062151.1866</v>
+        <v>4067433.1866</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>4214595.3888</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>4237932.38908</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>5274429.423</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>21304.83836</v>
       </c>
       <c r="D220" s="22" t="n">
-        <v>28736.95875000001</v>
+        <v>28736.95875</v>
       </c>
       <c r="E220" s="22" t="n">
-        <v>43225.01975999999</v>
+        <v>43225.01976</v>
       </c>
       <c r="F220" s="21" t="n">
         <v>75159.05082999999</v>
       </c>
       <c r="G220" s="22" t="n">
-        <v>67573.04892</v>
+        <v>67573.04891999999</v>
       </c>
       <c r="H220" s="21" t="n">
         <v>1138316.35515</v>
@@ -10030,32 +10547,37 @@
         <v>1122758.26848</v>
       </c>
       <c r="J220" s="21" t="n">
-        <v>1121923.89766</v>
+        <v>1121998.89766</v>
       </c>
       <c r="K220" s="22" t="n">
         <v>1123018.36501</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>1131009.32809</v>
+        <v>1136291.32809</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>1139471.91167</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>1156829.41167</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>1186717.784</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>5733.778179999999</v>
       </c>
       <c r="D221" s="22" t="n">
-        <v>5603.345350000001</v>
+        <v>5603.34535</v>
       </c>
       <c r="E221" s="22" t="n">
-        <v>5182.9886</v>
+        <v>5182.988600000001</v>
       </c>
       <c r="F221" s="21" t="n">
         <v>5230.02601</v>
@@ -10064,29 +10586,34 @@
         <v>4559.37711</v>
       </c>
       <c r="H221" s="21" t="n">
-        <v>4379.02155</v>
+        <v>4379.021549999999</v>
       </c>
       <c r="I221" s="22" t="n">
         <v>3924.47335</v>
       </c>
       <c r="J221" s="21" t="n">
-        <v>4131.397390000001</v>
+        <v>4131.39739</v>
       </c>
       <c r="K221" s="22" t="n">
-        <v>4119.273630000001</v>
+        <v>4119.27363</v>
       </c>
       <c r="L221" s="22" t="n">
-        <v>4132.631170000001</v>
+        <v>4132.63117</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>4052.330530000001</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>4257.99392</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>4223.926</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>0</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>5717.501</v>
@@ -10161,12 +10693,17 @@
       <c r="M223" s="23" t="n">
         <v>820492.24786</v>
       </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+      <c r="N223" s="23" t="n">
+        <v>935171.333</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>8278.32</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>0</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>5717.501</v>
@@ -10441,12 +11008,17 @@
       <c r="M230" s="22" t="n">
         <v>820492.24786</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>926893.013</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>26921.79082</v>
@@ -10479,14 +11051,19 @@
         <v>305611.55813</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>306646.99634</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>306886.10208</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>337238.915</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>798.7423</v>
@@ -10519,14 +11096,19 @@
         <v>10008.36197</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>10890.63499</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>10895.67178</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>15598.827</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>2.55582</v>
@@ -10544,7 +11126,7 @@
         <v>2781.65058</v>
       </c>
       <c r="H233" s="21" t="n">
-        <v>4584.078929999999</v>
+        <v>4584.07893</v>
       </c>
       <c r="I233" s="22" t="n">
         <v>4570.66708</v>
@@ -10559,17 +11141,22 @@
         <v>4572.34344</v>
       </c>
       <c r="M233" s="22" t="n">
-        <v>4582.691130000001</v>
-      </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+        <v>4582.69113</v>
+      </c>
+      <c r="N233" s="22" t="n">
+        <v>10.087</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
-        <v>2972.73696</v>
+        <v>2972.736960000001</v>
       </c>
       <c r="D234" s="22" t="n">
         <v>12754.36594</v>
@@ -10590,7 +11177,7 @@
         <v>593.34861</v>
       </c>
       <c r="J234" s="21" t="n">
-        <v>518.5033300000001</v>
+        <v>518.50333</v>
       </c>
       <c r="K234" s="22" t="n">
         <v>2177.93457</v>
@@ -10601,12 +11188,17 @@
       <c r="M234" s="22" t="n">
         <v>1205.33705</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>1187.028</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>0</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>2091.945</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>5050.362</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>23147.75574</v>
@@ -10679,20 +11276,25 @@
         <v>287103.87114</v>
       </c>
       <c r="M236" s="22" t="n">
-        <v>287876.38817</v>
-      </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+        <v>288110.45712</v>
+      </c>
+      <c r="N236" s="22" t="n">
+        <v>315392.611</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>35289.09012</v>
       </c>
       <c r="D237" s="23" t="n">
-        <v>38231.05695999999</v>
+        <v>38231.05696</v>
       </c>
       <c r="E237" s="23" t="n">
         <v>53265.48028</v>
@@ -10701,13 +11303,13 @@
         <v>338135.90689</v>
       </c>
       <c r="G237" s="23" t="n">
-        <v>396832.1397000001</v>
+        <v>396832.1397</v>
       </c>
       <c r="H237" s="33" t="n">
-        <v>706904.5059100001</v>
+        <v>706904.5059099998</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>948661.1833299999</v>
+        <v>961937.0242699999</v>
       </c>
       <c r="J237" s="33" t="n">
         <v>1067448.31764</v>
@@ -10716,17 +11318,22 @@
         <v>1094791.27602</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>1398922.59371</v>
+        <v>1401085.55779</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>1590019.04066</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>1872932.39548</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>2621220.215</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-68878.97493000001</v>
@@ -10744,35 +11351,40 @@
         <v>-246910.65262</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-1871025.4006</v>
+        <v>-1872320.45476</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-1849144.05292</v>
+        <v>-2167402.53464</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-3325766.462770001</v>
+        <v>-3325791.25806</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-6613354.182899999</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-8535939.24945</v>
+        <v>-8565680.166619999</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-13925461.84634</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-14009274.54964</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-16139815.214</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
-        <v>35197.79639</v>
+        <v>35197.79639000001</v>
       </c>
       <c r="D239" s="23" t="n">
-        <v>-84263.70360999998</v>
+        <v>-84263.70361</v>
       </c>
       <c r="E239" s="23" t="n">
         <v>210407.36521</v>
@@ -10784,29 +11396,34 @@
         <v>-1984773.36235</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>118599.20313</v>
+        <v>119808.84233</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>-1034361.13529</v>
+        <v>-1034644.10798</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>-3035300.88058</v>
+        <v>-3035303.43174</v>
       </c>
       <c r="K239" s="23" t="n">
         <v>-1915718.47713</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>-5194817.955610001</v>
+        <v>-5204396.64649</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>-1041890.36473</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>-1032837.72711</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>-3026833.426</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>80297.80966</v>
@@ -10815,7 +11432,7 @@
         <v>17878.68803</v>
       </c>
       <c r="E240" s="22" t="n">
-        <v>299578.8017200001</v>
+        <v>299578.80172</v>
       </c>
       <c r="F240" s="21" t="n">
         <v>480973.20847</v>
@@ -10830,23 +11447,28 @@
         <v>113059.99481</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>253329.3644</v>
+        <v>253334.19504</v>
       </c>
       <c r="K240" s="22" t="n">
-        <v>86331.84654000001</v>
+        <v>86331.84654</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>219377.1444</v>
+        <v>226644.04648</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>642296.16624</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>656936.8567</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>1049918.866</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>45100.01327</v>
@@ -10864,29 +11486,34 @@
         <v>2337005.32612</v>
       </c>
       <c r="H241" s="21" t="n">
-        <v>283617.88415</v>
+        <v>282408.2449499999</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>1147421.1301</v>
+        <v>1147704.10279</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>3288630.244979999</v>
+        <v>3288637.62678</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>2002050.32367</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>5414195.10001</v>
+        <v>5431040.692970001</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>1684186.53097</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>1689774.58381</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>4076752.292</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>1378318.60337</v>
@@ -10895,35 +11522,38 @@
         <v>1901835.69802</v>
       </c>
       <c r="E242" s="47" t="n">
-        <v>2997879.30374</v>
+        <v>2997879.303739999</v>
       </c>
       <c r="F242" s="48" t="n">
         <v>3347732.90788</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>2993161.172879999</v>
+        <v>2993161.17288</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>6606143.92183</v>
+        <v>6606087.859060001</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>8713573.688390002</v>
+        <v>8735745.342540001</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>9341056.767450001</v>
+        <v>9341129.94499</v>
       </c>
       <c r="K242" s="47" t="n">
-        <v>9117801.470400002</v>
+        <v>9117801.4704</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>11893823.23953</v>
+        <v>11994660.1448</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>12925658.88367</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>13596376.01066</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>20109843.53</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>114</v>
@@ -10963,23 +11596,26 @@
         <v>294</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>342</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>354</v>
+        <v>380</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>364</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>402</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>428</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>